--- a/data/pca/factorExposure/factorExposure_2019-06-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1207400221446421</v>
+        <v>0.07769448504830148</v>
       </c>
       <c r="C2">
-        <v>0.01840047922600837</v>
+        <v>-0.01429518256662707</v>
       </c>
       <c r="D2">
-        <v>-0.02004734950551195</v>
+        <v>-0.03496081575125574</v>
       </c>
       <c r="E2">
-        <v>-0.1089033035976989</v>
+        <v>0.1088395504424537</v>
       </c>
       <c r="F2">
-        <v>0.08571068134799405</v>
+        <v>-0.09266985475381048</v>
       </c>
       <c r="G2">
-        <v>-0.1197190796589702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.07930311720410486</v>
+      </c>
+      <c r="H2">
+        <v>-0.08882662011999846</v>
+      </c>
+      <c r="I2">
+        <v>-0.05660062725931775</v>
+      </c>
+      <c r="J2">
+        <v>-0.006538441032062824</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2117937769768212</v>
+        <v>0.1634100013569998</v>
       </c>
       <c r="C3">
-        <v>-0.07459794210700997</v>
+        <v>-0.08200773651463737</v>
       </c>
       <c r="D3">
-        <v>0.07197704248346529</v>
+        <v>0.04884160299444517</v>
       </c>
       <c r="E3">
-        <v>-0.3295247739717092</v>
+        <v>0.2308850084038352</v>
       </c>
       <c r="F3">
-        <v>0.004840949270193664</v>
+        <v>-0.305539062598848</v>
       </c>
       <c r="G3">
-        <v>-0.3371147595302267</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.01341984094326234</v>
+      </c>
+      <c r="H3">
+        <v>-0.2546577426007251</v>
+      </c>
+      <c r="I3">
+        <v>-0.1533376397336814</v>
+      </c>
+      <c r="J3">
+        <v>0.247279543711206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09985864966877531</v>
+        <v>0.07427147838980426</v>
       </c>
       <c r="C4">
-        <v>-0.01611150800547599</v>
+        <v>-0.02985374456570772</v>
       </c>
       <c r="D4">
-        <v>-0.001674432544181491</v>
+        <v>-0.02107912607621691</v>
       </c>
       <c r="E4">
-        <v>-0.08684350127666651</v>
+        <v>0.03547952411732062</v>
       </c>
       <c r="F4">
-        <v>0.04775658083462722</v>
+        <v>-0.09342932871395009</v>
       </c>
       <c r="G4">
-        <v>-0.03325995258997093</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03511721655684229</v>
+      </c>
+      <c r="H4">
+        <v>-0.03872509263163598</v>
+      </c>
+      <c r="I4">
+        <v>-0.02705087453054244</v>
+      </c>
+      <c r="J4">
+        <v>0.04415233158458241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01220728688295543</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.002924990542627258</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0002308858243009678</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.002301634321698696</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.009266979768966274</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01325984260335055</v>
+      </c>
+      <c r="H6">
+        <v>-0.002379654845730063</v>
+      </c>
+      <c r="I6">
+        <v>-0.002631211527010014</v>
+      </c>
+      <c r="J6">
+        <v>-0.002844467899492948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04384082087706059</v>
+        <v>0.03482452024971103</v>
       </c>
       <c r="C7">
-        <v>-0.00252293265279099</v>
+        <v>-0.01688387688713264</v>
       </c>
       <c r="D7">
-        <v>-0.02876448193858719</v>
+        <v>-0.01813222620789168</v>
       </c>
       <c r="E7">
-        <v>-0.07831299356575863</v>
+        <v>0.03146803693607178</v>
       </c>
       <c r="F7">
-        <v>-0.03895541060938962</v>
+        <v>-0.0539980306657798</v>
       </c>
       <c r="G7">
-        <v>-0.01880207348628072</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01408904694656065</v>
+      </c>
+      <c r="H7">
+        <v>-0.04390273188031261</v>
+      </c>
+      <c r="I7">
+        <v>-0.005674201254752222</v>
+      </c>
+      <c r="J7">
+        <v>0.01861825736087552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04420786685407369</v>
+        <v>0.03315264820441467</v>
       </c>
       <c r="C8">
-        <v>-0.03209143814164649</v>
+        <v>-0.03450071485394137</v>
       </c>
       <c r="D8">
-        <v>0.008465503317924509</v>
+        <v>-0.004664795831540928</v>
       </c>
       <c r="E8">
-        <v>-0.07500656263145215</v>
+        <v>0.0354396099456875</v>
       </c>
       <c r="F8">
-        <v>-0.003690099378858429</v>
+        <v>-0.08297248401127769</v>
       </c>
       <c r="G8">
-        <v>-0.04971312296850072</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.006294442009406812</v>
+      </c>
+      <c r="H8">
+        <v>-0.0519666705922367</v>
+      </c>
+      <c r="I8">
+        <v>-0.03456449845968674</v>
+      </c>
+      <c r="J8">
+        <v>0.02832974191824166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08858276085987808</v>
+        <v>0.06411596250797258</v>
       </c>
       <c r="C9">
-        <v>-0.0173247540338347</v>
+        <v>-0.03043310951988227</v>
       </c>
       <c r="D9">
-        <v>-0.01582431021720717</v>
+        <v>-0.02222084502306207</v>
       </c>
       <c r="E9">
-        <v>-0.07766351051063572</v>
+        <v>0.02837503637854667</v>
       </c>
       <c r="F9">
-        <v>0.0294460905758367</v>
+        <v>-0.09443695748343059</v>
       </c>
       <c r="G9">
-        <v>-0.03142840592229612</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02623322182513702</v>
+      </c>
+      <c r="H9">
+        <v>-0.03596362423291045</v>
+      </c>
+      <c r="I9">
+        <v>-0.01260182278598069</v>
+      </c>
+      <c r="J9">
+        <v>0.007824364592644172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.01941862526322293</v>
+        <v>0.009686556634761336</v>
       </c>
       <c r="C10">
-        <v>0.1587761654459612</v>
+        <v>0.1600597238377858</v>
       </c>
       <c r="D10">
-        <v>0.007548889907914573</v>
+        <v>0.008003619345822059</v>
       </c>
       <c r="E10">
-        <v>-0.04025679091013311</v>
+        <v>0.04146873553461165</v>
       </c>
       <c r="F10">
-        <v>0.000103895399633217</v>
+        <v>-0.0304460779415323</v>
       </c>
       <c r="G10">
-        <v>0.01417959348268306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01555999825632956</v>
+      </c>
+      <c r="H10">
+        <v>0.02062976486354168</v>
+      </c>
+      <c r="I10">
+        <v>-0.1213508629556421</v>
+      </c>
+      <c r="J10">
+        <v>0.02528166316757907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.0593742783159646</v>
+        <v>0.05007456076716545</v>
       </c>
       <c r="C11">
-        <v>0.001619134706690048</v>
+        <v>-0.01824610317847711</v>
       </c>
       <c r="D11">
-        <v>0.01300462333277072</v>
+        <v>-0.005599219267244034</v>
       </c>
       <c r="E11">
-        <v>-0.04316296035319141</v>
+        <v>0.03791354551939911</v>
       </c>
       <c r="F11">
-        <v>0.004759556147502131</v>
+        <v>-0.02974914365013483</v>
       </c>
       <c r="G11">
-        <v>0.006723416873922933</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.004229715841427185</v>
+      </c>
+      <c r="H11">
+        <v>-0.01963582559063882</v>
+      </c>
+      <c r="I11">
+        <v>0.01272703894366273</v>
+      </c>
+      <c r="J11">
+        <v>0.004563898775550638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04877631179353455</v>
+        <v>0.04791960369262775</v>
       </c>
       <c r="C12">
-        <v>-0.002941402922217465</v>
+        <v>-0.01808440931071281</v>
       </c>
       <c r="D12">
-        <v>0.007018705521494901</v>
+        <v>-0.007400229620516656</v>
       </c>
       <c r="E12">
-        <v>-0.02767457485485104</v>
+        <v>0.01158936969431979</v>
       </c>
       <c r="F12">
-        <v>-0.0004376933802550889</v>
+        <v>-0.02653522484362892</v>
       </c>
       <c r="G12">
-        <v>-0.003445648717030076</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.001099826612949411</v>
+      </c>
+      <c r="H12">
+        <v>-0.01002990236931459</v>
+      </c>
+      <c r="I12">
+        <v>0.01734354858675878</v>
+      </c>
+      <c r="J12">
+        <v>-0.0007404043203962535</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.05920187794209712</v>
+        <v>0.04033636166966469</v>
       </c>
       <c r="C13">
-        <v>-0.01506117836387577</v>
+        <v>-0.02025873044418517</v>
       </c>
       <c r="D13">
-        <v>0.02161145542623601</v>
+        <v>-0.004311882793299085</v>
       </c>
       <c r="E13">
-        <v>-0.1135972528071693</v>
+        <v>0.07844208708523555</v>
       </c>
       <c r="F13">
-        <v>0.01447528740331009</v>
+        <v>-0.07096682297227254</v>
       </c>
       <c r="G13">
-        <v>-0.03912889095428156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.001595640025369318</v>
+      </c>
+      <c r="H13">
+        <v>-0.05356563602378036</v>
+      </c>
+      <c r="I13">
+        <v>-0.02237742349549539</v>
+      </c>
+      <c r="J13">
+        <v>0.0009567979655317542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03800832940215427</v>
+        <v>0.02810270136127014</v>
       </c>
       <c r="C14">
-        <v>-0.004202491949416484</v>
+        <v>-0.01337706486686438</v>
       </c>
       <c r="D14">
-        <v>-0.01559894714413475</v>
+        <v>-0.0208822427917542</v>
       </c>
       <c r="E14">
-        <v>-0.0266477506983426</v>
+        <v>0.01935653949771454</v>
       </c>
       <c r="F14">
-        <v>-0.002840767767004591</v>
+        <v>-0.03694744071638097</v>
       </c>
       <c r="G14">
-        <v>-0.04252156754085087</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.009085378929122949</v>
+      </c>
+      <c r="H14">
+        <v>-0.05998151769914312</v>
+      </c>
+      <c r="I14">
+        <v>-0.02455953655437682</v>
+      </c>
+      <c r="J14">
+        <v>0.001762248629566086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.05161597112911572</v>
+        <v>0.04282026700295231</v>
       </c>
       <c r="C16">
-        <v>-0.01691147579383396</v>
+        <v>-0.02650828840996866</v>
       </c>
       <c r="D16">
-        <v>0.02336235007606014</v>
+        <v>0.001391142316744624</v>
       </c>
       <c r="E16">
-        <v>-0.04011140378835676</v>
+        <v>0.03179139396276514</v>
       </c>
       <c r="F16">
-        <v>0.0009146472611238302</v>
+        <v>-0.03195685474105433</v>
       </c>
       <c r="G16">
-        <v>0.005378491220938524</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.001503053895290463</v>
+      </c>
+      <c r="H16">
+        <v>-0.01946192505822619</v>
+      </c>
+      <c r="I16">
+        <v>0.01179950878368582</v>
+      </c>
+      <c r="J16">
+        <v>0.006335156557113826</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05088818976911761</v>
+        <v>0.04557461201889626</v>
       </c>
       <c r="C19">
-        <v>-0.02648440478013512</v>
+        <v>-0.0356636997916628</v>
       </c>
       <c r="D19">
-        <v>0.009123719385432173</v>
+        <v>-0.004197547301755906</v>
       </c>
       <c r="E19">
-        <v>-0.08048546710617356</v>
+        <v>0.06257756564007895</v>
       </c>
       <c r="F19">
-        <v>-0.006732518924449525</v>
+        <v>-0.07504225042816172</v>
       </c>
       <c r="G19">
-        <v>-0.05699107510737949</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.01173785199888977</v>
+      </c>
+      <c r="H19">
+        <v>-0.07619616890223925</v>
+      </c>
+      <c r="I19">
+        <v>-0.05804366745174952</v>
+      </c>
+      <c r="J19">
+        <v>-0.002160108837019594</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03783934057582594</v>
+        <v>0.01905643263116976</v>
       </c>
       <c r="C20">
-        <v>-0.0286495567140024</v>
+        <v>-0.03144333989525389</v>
       </c>
       <c r="D20">
-        <v>0.001647964661507206</v>
+        <v>-0.01094678213991355</v>
       </c>
       <c r="E20">
-        <v>-0.07656485482476476</v>
+        <v>0.04033613817906466</v>
       </c>
       <c r="F20">
-        <v>-0.01405047477942517</v>
+        <v>-0.0685970147949876</v>
       </c>
       <c r="G20">
-        <v>-0.04992239182201801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01265170428894897</v>
+      </c>
+      <c r="H20">
+        <v>-0.07444305943208744</v>
+      </c>
+      <c r="I20">
+        <v>-0.02074377731221314</v>
+      </c>
+      <c r="J20">
+        <v>0.04119495905827624</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03812497301435536</v>
+        <v>0.01761694900540434</v>
       </c>
       <c r="C21">
-        <v>-0.01018739980076665</v>
+        <v>-0.02098242346052851</v>
       </c>
       <c r="D21">
-        <v>0.01717388282537945</v>
+        <v>0.00966247867659668</v>
       </c>
       <c r="E21">
-        <v>-0.09077692189051785</v>
+        <v>0.04426883409924816</v>
       </c>
       <c r="F21">
-        <v>0.03810678208800626</v>
+        <v>-0.07412658741686579</v>
       </c>
       <c r="G21">
-        <v>-0.04729573205882434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01604824117609782</v>
+      </c>
+      <c r="H21">
+        <v>-0.0456068742267226</v>
+      </c>
+      <c r="I21">
+        <v>0.003349187633294688</v>
+      </c>
+      <c r="J21">
+        <v>-0.01451857658388832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04711991659056919</v>
+        <v>0.04069435623288441</v>
       </c>
       <c r="C24">
-        <v>-0.009200446227669501</v>
+        <v>-0.01644047590650638</v>
       </c>
       <c r="D24">
-        <v>0.01008760178725526</v>
+        <v>-0.005041274772774025</v>
       </c>
       <c r="E24">
-        <v>-0.05317759862033435</v>
+        <v>0.03444005226458249</v>
       </c>
       <c r="F24">
-        <v>0.002529562649054302</v>
+        <v>-0.03459523105215217</v>
       </c>
       <c r="G24">
-        <v>0.009500507508416326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.008543220968940193</v>
+      </c>
+      <c r="H24">
+        <v>-0.01489460209953489</v>
+      </c>
+      <c r="I24">
+        <v>0.009275012616469071</v>
+      </c>
+      <c r="J24">
+        <v>0.01164903807650136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.05004250705718716</v>
+        <v>0.04334435995341612</v>
       </c>
       <c r="C25">
-        <v>0.001084158152279304</v>
+        <v>-0.01645526902582473</v>
       </c>
       <c r="D25">
-        <v>0.0116088716598707</v>
+        <v>-0.003014904709811969</v>
       </c>
       <c r="E25">
-        <v>-0.04240986903642396</v>
+        <v>0.03368863025467231</v>
       </c>
       <c r="F25">
-        <v>0.004374080991461787</v>
+        <v>-0.03704044997636277</v>
       </c>
       <c r="G25">
-        <v>0.009097649426135822</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.001300269053385609</v>
+      </c>
+      <c r="H25">
+        <v>-0.01129131744987303</v>
+      </c>
+      <c r="I25">
+        <v>0.01309114255031325</v>
+      </c>
+      <c r="J25">
+        <v>0.001033934848327801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.002515406350938374</v>
+        <v>0.01012438949279753</v>
       </c>
       <c r="C26">
-        <v>-0.0148764658511403</v>
+        <v>-0.01576550075711361</v>
       </c>
       <c r="D26">
-        <v>-0.003474915686461771</v>
+        <v>0.003967753302916245</v>
       </c>
       <c r="E26">
-        <v>-0.0559295946152199</v>
+        <v>0.04718849432806555</v>
       </c>
       <c r="F26">
-        <v>0.02347512811493569</v>
+        <v>-0.0376926083743672</v>
       </c>
       <c r="G26">
-        <v>-0.01924067477876921</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.009475819023667982</v>
+      </c>
+      <c r="H26">
+        <v>-0.03534047935097841</v>
+      </c>
+      <c r="I26">
+        <v>-0.00136674647830032</v>
+      </c>
+      <c r="J26">
+        <v>0.01508724868970994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1090023923032171</v>
+        <v>0.08755223938817223</v>
       </c>
       <c r="C27">
-        <v>-0.003296551234121722</v>
+        <v>-0.02111100204471772</v>
       </c>
       <c r="D27">
-        <v>-0.01131884764988023</v>
+        <v>-0.03024515724141524</v>
       </c>
       <c r="E27">
-        <v>-0.1083545238959709</v>
+        <v>0.04390779105818524</v>
       </c>
       <c r="F27">
-        <v>0.004929975794606429</v>
+        <v>-0.07861127366792743</v>
       </c>
       <c r="G27">
-        <v>0.01754220345225983</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>6.686636574071115e-05</v>
+      </c>
+      <c r="H27">
+        <v>-0.0104753700376075</v>
+      </c>
+      <c r="I27">
+        <v>-0.002954128124039244</v>
+      </c>
+      <c r="J27">
+        <v>0.02249378838657084</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.02393246042408243</v>
+        <v>0.01936866805655794</v>
       </c>
       <c r="C28">
-        <v>0.2370255621776374</v>
+        <v>0.2315944513993244</v>
       </c>
       <c r="D28">
-        <v>0.01821217680062552</v>
+        <v>0.0124964887711699</v>
       </c>
       <c r="E28">
-        <v>-0.02303877092600038</v>
+        <v>0.03108504566456782</v>
       </c>
       <c r="F28">
-        <v>0.002383918186736816</v>
+        <v>-0.0208832597082417</v>
       </c>
       <c r="G28">
-        <v>0.04693841733192006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01860747638630995</v>
+      </c>
+      <c r="H28">
+        <v>0.04675576213380606</v>
+      </c>
+      <c r="I28">
+        <v>-0.1622896752526699</v>
+      </c>
+      <c r="J28">
+        <v>0.05115935097782228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02160816800008186</v>
+        <v>0.01933533916739089</v>
       </c>
       <c r="C29">
-        <v>-0.01476742002360446</v>
+        <v>-0.01749921946807876</v>
       </c>
       <c r="D29">
-        <v>-0.01659143613021649</v>
+        <v>-0.01808475684487472</v>
       </c>
       <c r="E29">
-        <v>-0.04020249503123054</v>
+        <v>0.01490169585226284</v>
       </c>
       <c r="F29">
-        <v>0.01287219789875247</v>
+        <v>-0.04366640812905542</v>
       </c>
       <c r="G29">
-        <v>-0.04579582053847451</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.01275328520035852</v>
+      </c>
+      <c r="H29">
+        <v>-0.05879505000435938</v>
+      </c>
+      <c r="I29">
+        <v>-0.01333619199920973</v>
+      </c>
+      <c r="J29">
+        <v>-0.0005316355297458457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1032450407367392</v>
+        <v>0.1002368762634001</v>
       </c>
       <c r="C30">
-        <v>0.0007940060993943012</v>
+        <v>-0.02987886263594347</v>
       </c>
       <c r="D30">
-        <v>-0.00317079962630091</v>
+        <v>-0.03037955230243027</v>
       </c>
       <c r="E30">
-        <v>-0.1344206499578047</v>
+        <v>0.09073905729601822</v>
       </c>
       <c r="F30">
-        <v>0.02022328519626944</v>
+        <v>-0.08114157409648144</v>
       </c>
       <c r="G30">
-        <v>0.06850099449125321</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01683151983990673</v>
+      </c>
+      <c r="H30">
+        <v>-0.01301449198991475</v>
+      </c>
+      <c r="I30">
+        <v>0.0315624112951832</v>
+      </c>
+      <c r="J30">
+        <v>-0.01360041620930507</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05628793646981056</v>
+        <v>0.05708554866809834</v>
       </c>
       <c r="C31">
-        <v>-0.008260511520863795</v>
+        <v>-0.01750664459407042</v>
       </c>
       <c r="D31">
-        <v>-0.0151682845361914</v>
+        <v>-0.01500587788268939</v>
       </c>
       <c r="E31">
-        <v>0.007615441974855937</v>
+        <v>0.0176833490526561</v>
       </c>
       <c r="F31">
-        <v>0.0192878855405818</v>
+        <v>0.0004834272415225309</v>
       </c>
       <c r="G31">
-        <v>-0.02312082945958609</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03593704439944233</v>
+      </c>
+      <c r="H31">
+        <v>-0.04918131858446318</v>
+      </c>
+      <c r="I31">
+        <v>-0.02364310242691701</v>
+      </c>
+      <c r="J31">
+        <v>-0.0004520054554285131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06682114942154284</v>
+        <v>0.04551118538097517</v>
       </c>
       <c r="C32">
-        <v>-0.01677084717370826</v>
+        <v>-0.04075689785812549</v>
       </c>
       <c r="D32">
-        <v>-0.00118332967050671</v>
+        <v>-0.01699269469454257</v>
       </c>
       <c r="E32">
-        <v>-0.1244221865013583</v>
+        <v>0.05841978224555028</v>
       </c>
       <c r="F32">
-        <v>-0.01835413380646955</v>
+        <v>-0.09263537516147664</v>
       </c>
       <c r="G32">
-        <v>-0.0303968041772817</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.017830474824932</v>
+      </c>
+      <c r="H32">
+        <v>-0.05290868993425434</v>
+      </c>
+      <c r="I32">
+        <v>-0.02495785060649688</v>
+      </c>
+      <c r="J32">
+        <v>-0.01327579016325374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.06995979317963424</v>
+        <v>0.05859375756514857</v>
       </c>
       <c r="C33">
-        <v>-0.02159914715387961</v>
+        <v>-0.04142005134439692</v>
       </c>
       <c r="D33">
-        <v>-0.001038621993543795</v>
+        <v>-0.003181046660048285</v>
       </c>
       <c r="E33">
-        <v>-0.07717976571486844</v>
+        <v>0.06408822048543063</v>
       </c>
       <c r="F33">
-        <v>0.0351027516837003</v>
+        <v>-0.06208409092864316</v>
       </c>
       <c r="G33">
-        <v>-0.0248226446249919</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01508155148366166</v>
+      </c>
+      <c r="H33">
+        <v>-0.05192106849986935</v>
+      </c>
+      <c r="I33">
+        <v>0.008960202526990568</v>
+      </c>
+      <c r="J33">
+        <v>0.003480648058188476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04750644385058381</v>
+        <v>0.04256838537614921</v>
       </c>
       <c r="C34">
-        <v>-0.0087669413023873</v>
+        <v>-0.0220066074585885</v>
       </c>
       <c r="D34">
-        <v>0.009497957351027035</v>
+        <v>-0.008500841371821525</v>
       </c>
       <c r="E34">
-        <v>-0.02634956898164981</v>
+        <v>0.02568241030528617</v>
       </c>
       <c r="F34">
-        <v>-0.004620209197462608</v>
+        <v>-0.02905418348821334</v>
       </c>
       <c r="G34">
-        <v>-0.01057376469067081</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0002578941494536642</v>
+      </c>
+      <c r="H34">
+        <v>-0.02237350143817254</v>
+      </c>
+      <c r="I34">
+        <v>0.01152259690271482</v>
+      </c>
+      <c r="J34">
+        <v>-0.00454234218924071</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.0121374816035482</v>
+        <v>0.01376926476336841</v>
       </c>
       <c r="C36">
-        <v>0.01067207990588437</v>
+        <v>0.0003386893267188685</v>
       </c>
       <c r="D36">
-        <v>-0.004227783860116957</v>
+        <v>-0.006824674967456897</v>
       </c>
       <c r="E36">
-        <v>-0.02603582614123242</v>
+        <v>0.01626249781742085</v>
       </c>
       <c r="F36">
-        <v>0.01118252610991513</v>
+        <v>-0.02658030222775413</v>
       </c>
       <c r="G36">
-        <v>-0.01361674384229105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01513753428629828</v>
+      </c>
+      <c r="H36">
+        <v>-0.03517783744138408</v>
+      </c>
+      <c r="I36">
+        <v>-0.01001340459602554</v>
+      </c>
+      <c r="J36">
+        <v>-0.007987703973193443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.0540283028977044</v>
+        <v>0.03046489337726183</v>
       </c>
       <c r="C38">
-        <v>-0.0009579438583720958</v>
+        <v>-0.007324134147833308</v>
       </c>
       <c r="D38">
-        <v>-0.01852087787770586</v>
+        <v>-0.006521694364348694</v>
       </c>
       <c r="E38">
-        <v>-0.03929011637593893</v>
+        <v>0.02831400329503677</v>
       </c>
       <c r="F38">
-        <v>0.01192391253627845</v>
+        <v>-0.04528456194673487</v>
       </c>
       <c r="G38">
-        <v>-0.03378610483632414</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02270119330743705</v>
+      </c>
+      <c r="H38">
+        <v>-0.01886481681074539</v>
+      </c>
+      <c r="I38">
+        <v>-0.005606424174491831</v>
+      </c>
+      <c r="J38">
+        <v>-0.02889766173355496</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07615896884134073</v>
+        <v>0.06136767346890039</v>
       </c>
       <c r="C39">
-        <v>-0.006927644944523231</v>
+        <v>-0.03194360748489148</v>
       </c>
       <c r="D39">
-        <v>0.005668025260559631</v>
+        <v>-0.01961377683963717</v>
       </c>
       <c r="E39">
-        <v>-0.04868665460575498</v>
+        <v>0.04985194434745183</v>
       </c>
       <c r="F39">
-        <v>0.01961476580455477</v>
+        <v>-0.03789777371389748</v>
       </c>
       <c r="G39">
-        <v>0.007063837167426112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01067705466537105</v>
+      </c>
+      <c r="H39">
+        <v>-0.02029781546810067</v>
+      </c>
+      <c r="I39">
+        <v>0.02559927306246767</v>
+      </c>
+      <c r="J39">
+        <v>-0.007001458607605975</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07322021714471975</v>
+        <v>0.05723141213896246</v>
       </c>
       <c r="C40">
-        <v>-0.02588581444671898</v>
+        <v>-0.03366949354755452</v>
       </c>
       <c r="D40">
-        <v>0.01106170497318523</v>
+        <v>-0.02030677277619642</v>
       </c>
       <c r="E40">
-        <v>-0.1155910291967385</v>
+        <v>0.08779799747492396</v>
       </c>
       <c r="F40">
-        <v>0.02584815205351693</v>
+        <v>-0.07053335042601001</v>
       </c>
       <c r="G40">
-        <v>-0.08191679150957114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.003963836229059042</v>
+      </c>
+      <c r="H40">
+        <v>-0.07810290577307306</v>
+      </c>
+      <c r="I40">
+        <v>-0.01903958136744579</v>
+      </c>
+      <c r="J40">
+        <v>0.02076101632771927</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.004248425435166731</v>
+        <v>0.000845697594016381</v>
       </c>
       <c r="C41">
-        <v>-0.008928605414173363</v>
+        <v>-0.009427628352987695</v>
       </c>
       <c r="D41">
-        <v>-0.012850393826147</v>
+        <v>-0.003483491514441382</v>
       </c>
       <c r="E41">
-        <v>-0.01598605146264824</v>
+        <v>0.008264974300679797</v>
       </c>
       <c r="F41">
-        <v>0.02328291350928324</v>
+        <v>-0.01662489601977357</v>
       </c>
       <c r="G41">
-        <v>-0.02906461455284881</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.02498999269313656</v>
+      </c>
+      <c r="H41">
+        <v>-0.03915264242575504</v>
+      </c>
+      <c r="I41">
+        <v>-0.02791610734214585</v>
+      </c>
+      <c r="J41">
+        <v>0.01117439404003824</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.140919011455823</v>
+        <v>0.2435039006295781</v>
       </c>
       <c r="C42">
-        <v>-0.1741299942257745</v>
+        <v>-0.112904436129647</v>
       </c>
       <c r="D42">
-        <v>0.9264822073249107</v>
+        <v>0.9094558804675926</v>
       </c>
       <c r="E42">
-        <v>0.1077543312498654</v>
+        <v>0.0547064179324878</v>
       </c>
       <c r="F42">
-        <v>-0.0247937771345687</v>
+        <v>0.2542249510898542</v>
       </c>
       <c r="G42">
-        <v>0.1539169725174263</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.008632425781561683</v>
+      </c>
+      <c r="H42">
+        <v>0.02613492137875614</v>
+      </c>
+      <c r="I42">
+        <v>-0.04487991810936703</v>
+      </c>
+      <c r="J42">
+        <v>0.01615182063036316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008406050393266983</v>
+        <v>0.002429974494090373</v>
       </c>
       <c r="C43">
-        <v>-0.01156998716864535</v>
+        <v>-0.01234128848288523</v>
       </c>
       <c r="D43">
-        <v>-0.01314458810066188</v>
+        <v>-0.003624674766582992</v>
       </c>
       <c r="E43">
-        <v>-0.03845712206587482</v>
+        <v>0.01938285056325513</v>
       </c>
       <c r="F43">
-        <v>-0.0005502923806694848</v>
+        <v>-0.02557163458902546</v>
       </c>
       <c r="G43">
-        <v>-0.02440692619130636</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.005885692212120641</v>
+      </c>
+      <c r="H43">
+        <v>-0.03647783835121185</v>
+      </c>
+      <c r="I43">
+        <v>-0.01709527980803629</v>
+      </c>
+      <c r="J43">
+        <v>0.009189164242220415</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.04509317179435762</v>
+        <v>0.02863442568449986</v>
       </c>
       <c r="C44">
-        <v>-0.03133575146721405</v>
+        <v>-0.03085527106869099</v>
       </c>
       <c r="D44">
-        <v>0.004631276552574513</v>
+        <v>0.002078156580254168</v>
       </c>
       <c r="E44">
-        <v>-0.1161655794294885</v>
+        <v>0.07876652740161497</v>
       </c>
       <c r="F44">
-        <v>0.05708264558222596</v>
+        <v>-0.09844690337966641</v>
       </c>
       <c r="G44">
-        <v>-0.1233164002756899</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0228795795560921</v>
+      </c>
+      <c r="H44">
+        <v>-0.1164199549255204</v>
+      </c>
+      <c r="I44">
+        <v>-0.04077629941486893</v>
+      </c>
+      <c r="J44">
+        <v>0.0007849311964682968</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02282568368810984</v>
+        <v>0.02120053362159924</v>
       </c>
       <c r="C46">
-        <v>-0.01110743252802663</v>
+        <v>-0.02358888494050389</v>
       </c>
       <c r="D46">
-        <v>-0.0213515247588266</v>
+        <v>-0.01647596520225545</v>
       </c>
       <c r="E46">
-        <v>-0.02626714759202955</v>
+        <v>0.03081979274560433</v>
       </c>
       <c r="F46">
-        <v>0.0248950319140559</v>
+        <v>-0.03869675479895985</v>
       </c>
       <c r="G46">
-        <v>-0.04328692467756051</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01294895597570181</v>
+      </c>
+      <c r="H46">
+        <v>-0.0614118985706738</v>
+      </c>
+      <c r="I46">
+        <v>-0.01850554120230084</v>
+      </c>
+      <c r="J46">
+        <v>0.01780665711420639</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.07995495152738166</v>
+        <v>0.08842969316466918</v>
       </c>
       <c r="C47">
-        <v>-0.001441972639540106</v>
+        <v>-0.01522567654118665</v>
       </c>
       <c r="D47">
-        <v>-0.01672709672323376</v>
+        <v>-0.02189675028034263</v>
       </c>
       <c r="E47">
-        <v>0.008762358563090407</v>
+        <v>0.0019064667371101</v>
       </c>
       <c r="F47">
-        <v>0.01075910954790715</v>
+        <v>0.0006713857941897976</v>
       </c>
       <c r="G47">
-        <v>-0.04806648415140307</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03023022906642825</v>
+      </c>
+      <c r="H47">
+        <v>-0.06902536813361673</v>
+      </c>
+      <c r="I47">
+        <v>-0.03076989477204376</v>
+      </c>
+      <c r="J47">
+        <v>0.0110478507638573</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01460790904733477</v>
+        <v>0.01455548753618263</v>
       </c>
       <c r="C48">
-        <v>-0.01292522016191332</v>
+        <v>-0.01737861182660586</v>
       </c>
       <c r="D48">
-        <v>-0.01177077260465136</v>
+        <v>-0.004898047904387131</v>
       </c>
       <c r="E48">
-        <v>-0.03748684695240861</v>
+        <v>0.02122949299249299</v>
       </c>
       <c r="F48">
-        <v>0.017566204126016</v>
+        <v>-0.03625096583322336</v>
       </c>
       <c r="G48">
-        <v>-0.01161445733142043</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.009099859563122339</v>
+      </c>
+      <c r="H48">
+        <v>-0.02376531883847575</v>
+      </c>
+      <c r="I48">
+        <v>-0.01549420259472755</v>
+      </c>
+      <c r="J48">
+        <v>0.007554873393939484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.07999809976502636</v>
+        <v>0.08164985655807365</v>
       </c>
       <c r="C50">
-        <v>-0.02315464591053598</v>
+        <v>-0.03509838664120225</v>
       </c>
       <c r="D50">
-        <v>-0.01922172017333573</v>
+        <v>-0.01454743490549263</v>
       </c>
       <c r="E50">
-        <v>0.01780408901284954</v>
+        <v>0.001271497819820799</v>
       </c>
       <c r="F50">
-        <v>0.01334690858398167</v>
+        <v>-0.009515233040772583</v>
       </c>
       <c r="G50">
-        <v>-0.02523406435719392</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.004285121527949956</v>
+      </c>
+      <c r="H50">
+        <v>-0.04813011356750987</v>
+      </c>
+      <c r="I50">
+        <v>-0.0209567275213583</v>
+      </c>
+      <c r="J50">
+        <v>-0.03512024683742347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06785004631209446</v>
+        <v>0.04717452251115829</v>
       </c>
       <c r="C51">
-        <v>0.02638012329165106</v>
+        <v>0.005869317630991138</v>
       </c>
       <c r="D51">
-        <v>0.0007620627644520066</v>
+        <v>-0.009103007697203267</v>
       </c>
       <c r="E51">
-        <v>-0.06692952895376938</v>
+        <v>0.08083023012854414</v>
       </c>
       <c r="F51">
-        <v>0.05303720762238089</v>
+        <v>-0.05884264982642949</v>
       </c>
       <c r="G51">
-        <v>-0.01526482820968166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04114939181422502</v>
+      </c>
+      <c r="H51">
+        <v>-0.058144482291675</v>
+      </c>
+      <c r="I51">
+        <v>-0.04512926660500374</v>
+      </c>
+      <c r="J51">
+        <v>0.007022120350525239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1481769263657594</v>
+        <v>0.1302495519296812</v>
       </c>
       <c r="C53">
-        <v>-0.003399178595038888</v>
+        <v>-0.03753754012815901</v>
       </c>
       <c r="D53">
-        <v>-0.0412421695894125</v>
+        <v>-0.04656407791463316</v>
       </c>
       <c r="E53">
-        <v>0.02096233508442479</v>
+        <v>-0.01878771675320724</v>
       </c>
       <c r="F53">
-        <v>0.002881927452353088</v>
+        <v>0.01925143763263187</v>
       </c>
       <c r="G53">
-        <v>-0.02195973540279841</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02627424906997056</v>
+      </c>
+      <c r="H53">
+        <v>-0.01186801114140313</v>
+      </c>
+      <c r="I53">
+        <v>-0.02465475799415869</v>
+      </c>
+      <c r="J53">
+        <v>0.06484168123001903</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02610497480505935</v>
+        <v>0.02435982143671884</v>
       </c>
       <c r="C54">
-        <v>0.008145727625589501</v>
+        <v>-0.003166806744677282</v>
       </c>
       <c r="D54">
-        <v>-0.02142790773041763</v>
+        <v>-0.02393336019641791</v>
       </c>
       <c r="E54">
-        <v>-0.03510663034929157</v>
+        <v>0.01468815163863804</v>
       </c>
       <c r="F54">
-        <v>0.03303492663496693</v>
+        <v>-0.0423787860160324</v>
       </c>
       <c r="G54">
-        <v>-0.05121554190435237</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.02464975788145115</v>
+      </c>
+      <c r="H54">
+        <v>-0.06646881328679589</v>
+      </c>
+      <c r="I54">
+        <v>-0.0427743596258358</v>
+      </c>
+      <c r="J54">
+        <v>-0.005443114461654392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09933435757432357</v>
+        <v>0.1023083133801353</v>
       </c>
       <c r="C55">
-        <v>0.006147814638703312</v>
+        <v>-0.01962802974179296</v>
       </c>
       <c r="D55">
-        <v>-0.03415679038670863</v>
+        <v>-0.02994476073930766</v>
       </c>
       <c r="E55">
-        <v>-0.0143080333241842</v>
+        <v>-0.03259842577021679</v>
       </c>
       <c r="F55">
-        <v>-0.02106735225575735</v>
+        <v>-0.006362841364027195</v>
       </c>
       <c r="G55">
-        <v>-0.01020479512263613</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.009137169993662608</v>
+      </c>
+      <c r="H55">
+        <v>-0.03011665094697743</v>
+      </c>
+      <c r="I55">
+        <v>-0.003539092029471561</v>
+      </c>
+      <c r="J55">
+        <v>0.06178162415964865</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1799963182602836</v>
+        <v>0.1690932073489494</v>
       </c>
       <c r="C56">
-        <v>0.02440203100994492</v>
+        <v>-0.01886319194812708</v>
       </c>
       <c r="D56">
-        <v>-0.08309589463835398</v>
+        <v>-0.08748623718330027</v>
       </c>
       <c r="E56">
-        <v>0.05885421825349523</v>
+        <v>-0.06286128514821118</v>
       </c>
       <c r="F56">
-        <v>-0.05199431902025994</v>
+        <v>0.04001731257686869</v>
       </c>
       <c r="G56">
-        <v>0.006874837137460543</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.01478513851972042</v>
+      </c>
+      <c r="H56">
+        <v>0.03047640059484355</v>
+      </c>
+      <c r="I56">
+        <v>0.02002223434280044</v>
+      </c>
+      <c r="J56">
+        <v>0.08679074750441364</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09233298465587503</v>
+        <v>0.07151361199654864</v>
       </c>
       <c r="C57">
-        <v>-0.01751742365648746</v>
+        <v>-0.02515778500787626</v>
       </c>
       <c r="D57">
-        <v>-0.01866436892529553</v>
+        <v>-0.01011948503982617</v>
       </c>
       <c r="E57">
-        <v>-0.07024394179186257</v>
+        <v>0.05407109422348257</v>
       </c>
       <c r="F57">
-        <v>0.006565878235732354</v>
+        <v>-0.05415247252839447</v>
       </c>
       <c r="G57">
-        <v>-0.04309353370208666</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.0007134025807967889</v>
+      </c>
+      <c r="H57">
+        <v>-0.04695460975734682</v>
+      </c>
+      <c r="I57">
+        <v>0.006050045003530831</v>
+      </c>
+      <c r="J57">
+        <v>0.02168778205933414</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1609094168773139</v>
+        <v>0.1959133440678713</v>
       </c>
       <c r="C58">
-        <v>0.001406822644727719</v>
+        <v>-0.03942296208008413</v>
       </c>
       <c r="D58">
-        <v>0.06227600526533083</v>
+        <v>0.01560328187660924</v>
       </c>
       <c r="E58">
-        <v>-0.1125128172680665</v>
+        <v>0.1361587389733102</v>
       </c>
       <c r="F58">
-        <v>-0.1040081863982176</v>
+        <v>-0.1066983588993121</v>
       </c>
       <c r="G58">
-        <v>-0.2454572987291894</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.2105248251556127</v>
+      </c>
+      <c r="H58">
+        <v>-0.3059014055281641</v>
+      </c>
+      <c r="I58">
+        <v>-0.102905223169479</v>
+      </c>
+      <c r="J58">
+        <v>-0.4818676426606646</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.01365575046953779</v>
+        <v>0.0231902803258631</v>
       </c>
       <c r="C59">
-        <v>0.202214252683956</v>
+        <v>0.1986472969515128</v>
       </c>
       <c r="D59">
-        <v>-0.01719687112780943</v>
+        <v>-0.02337025158517051</v>
       </c>
       <c r="E59">
-        <v>-0.04028411393529647</v>
+        <v>0.05186412214737481</v>
       </c>
       <c r="F59">
-        <v>0.004917854246431842</v>
+        <v>-0.02013031193187666</v>
       </c>
       <c r="G59">
-        <v>0.04259008706544522</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.0008878542914726644</v>
+      </c>
+      <c r="H59">
+        <v>0.03369820402878183</v>
+      </c>
+      <c r="I59">
+        <v>-0.08364036077877403</v>
+      </c>
+      <c r="J59">
+        <v>-0.005329386682526138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1750108707098104</v>
+        <v>0.1799992105469693</v>
       </c>
       <c r="C60">
-        <v>0.1273931341671855</v>
+        <v>0.06643231904819398</v>
       </c>
       <c r="D60">
-        <v>-0.01939456386070858</v>
+        <v>-0.03520648893211865</v>
       </c>
       <c r="E60">
-        <v>-0.177643871570842</v>
+        <v>0.1933905470137669</v>
       </c>
       <c r="F60">
-        <v>0.04799725789090971</v>
+        <v>-0.09439666375591518</v>
       </c>
       <c r="G60">
-        <v>0.1631233923236974</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.03990707104653612</v>
+      </c>
+      <c r="H60">
+        <v>0.2355760472439648</v>
+      </c>
+      <c r="I60">
+        <v>0.1275027284281634</v>
+      </c>
+      <c r="J60">
+        <v>-0.00551548331370592</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.0490590639475816</v>
+        <v>0.03802222955440807</v>
       </c>
       <c r="C61">
-        <v>-0.001561028446774076</v>
+        <v>-0.01752632539165818</v>
       </c>
       <c r="D61">
-        <v>0.01116622165821227</v>
+        <v>-0.0022174508720555</v>
       </c>
       <c r="E61">
-        <v>-0.04555936231523498</v>
+        <v>0.03783949425101887</v>
       </c>
       <c r="F61">
-        <v>0.01717047586856592</v>
+        <v>-0.03072740350807956</v>
       </c>
       <c r="G61">
-        <v>0.02211136320988224</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.008110047037029186</v>
+      </c>
+      <c r="H61">
+        <v>-0.007400143538127676</v>
+      </c>
+      <c r="I61">
+        <v>0.03295476607656855</v>
+      </c>
+      <c r="J61">
+        <v>-0.02339637527473494</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.0391296557655495</v>
+        <v>0.0277416641345557</v>
       </c>
       <c r="C63">
-        <v>0.01218311211030337</v>
+        <v>-0.01259503010637005</v>
       </c>
       <c r="D63">
-        <v>-0.008807772398623631</v>
+        <v>-0.00929457792602645</v>
       </c>
       <c r="E63">
-        <v>-0.04525963018299821</v>
+        <v>0.02895100434365405</v>
       </c>
       <c r="F63">
-        <v>0.01039595889537332</v>
+        <v>-0.02603014385228737</v>
       </c>
       <c r="G63">
-        <v>-0.0198980069593249</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.003885602634284813</v>
+      </c>
+      <c r="H63">
+        <v>-0.04460084916031731</v>
+      </c>
+      <c r="I63">
+        <v>-0.03094088854040366</v>
+      </c>
+      <c r="J63">
+        <v>0.03903755667523615</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.09257282790005919</v>
+        <v>0.06700724384906462</v>
       </c>
       <c r="C64">
-        <v>-0.0193539701708117</v>
+        <v>-0.0373272260482937</v>
       </c>
       <c r="D64">
-        <v>-0.04753752041002551</v>
+        <v>-0.03158175726771936</v>
       </c>
       <c r="E64">
-        <v>-0.0716549222917973</v>
+        <v>0.01250435241316089</v>
       </c>
       <c r="F64">
-        <v>0.09059540094571511</v>
+        <v>-0.07938659173055466</v>
       </c>
       <c r="G64">
-        <v>0.04325750360235179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.06884692243255552</v>
+      </c>
+      <c r="H64">
+        <v>0.002731489134262481</v>
+      </c>
+      <c r="I64">
+        <v>-0.01694910164468743</v>
+      </c>
+      <c r="J64">
+        <v>0.05721020647212282</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01337881190502563</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.003110490950905616</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.0002921181103019084</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.003250418859419498</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.007815094553052449</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01369285669892573</v>
+      </c>
+      <c r="H65">
+        <v>0.0007977281671372075</v>
+      </c>
+      <c r="I65">
+        <v>0.0001002807788700426</v>
+      </c>
+      <c r="J65">
+        <v>-0.003269040074057755</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.101620551710864</v>
+        <v>0.07242368534282814</v>
       </c>
       <c r="C66">
-        <v>-0.009345851043735405</v>
+        <v>-0.04324153740261726</v>
       </c>
       <c r="D66">
-        <v>-0.03037624044475897</v>
+        <v>-0.04344023580591063</v>
       </c>
       <c r="E66">
-        <v>-0.08726702942293442</v>
+        <v>0.06606378903343506</v>
       </c>
       <c r="F66">
-        <v>0.03601861829688636</v>
+        <v>-0.05354026689814961</v>
       </c>
       <c r="G66">
-        <v>0.001102820989654128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01501846906727297</v>
+      </c>
+      <c r="H66">
+        <v>-0.01820544564985862</v>
+      </c>
+      <c r="I66">
+        <v>0.04576303930495888</v>
+      </c>
+      <c r="J66">
+        <v>0.0175185233282519</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.05983107187412982</v>
+        <v>0.0403032646110878</v>
       </c>
       <c r="C67">
-        <v>0.02150431742595513</v>
+        <v>0.008286464967236663</v>
       </c>
       <c r="D67">
-        <v>-0.00747802507071608</v>
+        <v>-0.00552398089276802</v>
       </c>
       <c r="E67">
-        <v>-0.03271867675060957</v>
+        <v>0.02910274975138826</v>
       </c>
       <c r="F67">
-        <v>0.01173126844569461</v>
+        <v>-0.03108800809297432</v>
       </c>
       <c r="G67">
-        <v>-0.03251956065760078</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.03051676387839987</v>
+      </c>
+      <c r="H67">
+        <v>-0.005524460317985035</v>
+      </c>
+      <c r="I67">
+        <v>0.03277742417168672</v>
+      </c>
+      <c r="J67">
+        <v>-0.01455424993409743</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.01318786323263804</v>
+        <v>0.03135182807683447</v>
       </c>
       <c r="C68">
-        <v>0.2459093151558122</v>
+        <v>0.2362511052909854</v>
       </c>
       <c r="D68">
-        <v>0.002648402399101109</v>
+        <v>-0.01553639267196453</v>
       </c>
       <c r="E68">
-        <v>-0.02881148923306346</v>
+        <v>0.03820831355655548</v>
       </c>
       <c r="F68">
-        <v>-0.01150250410816858</v>
+        <v>-0.01562900086523721</v>
       </c>
       <c r="G68">
-        <v>0.03319344054046332</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01299916149295429</v>
+      </c>
+      <c r="H68">
+        <v>0.03952890515546133</v>
+      </c>
+      <c r="I68">
+        <v>-0.1738758627902783</v>
+      </c>
+      <c r="J68">
+        <v>0.01387339372100278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06534471454583775</v>
+        <v>0.06880351041822941</v>
       </c>
       <c r="C69">
-        <v>-0.001998986288304024</v>
+        <v>-0.01391796985278341</v>
       </c>
       <c r="D69">
-        <v>-0.02725584783394017</v>
+        <v>-0.02930020247001203</v>
       </c>
       <c r="E69">
-        <v>-0.001718856418651165</v>
+        <v>0.01241028477133652</v>
       </c>
       <c r="F69">
-        <v>0.006419124692859933</v>
+        <v>-0.0006468233090788653</v>
       </c>
       <c r="G69">
-        <v>-0.017254063755591</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02375816422557001</v>
+      </c>
+      <c r="H69">
+        <v>-0.04820289202460849</v>
+      </c>
+      <c r="I69">
+        <v>-0.001901904751181922</v>
+      </c>
+      <c r="J69">
+        <v>0.008157793126761511</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.004952891717869549</v>
+        <v>0.03754404648478343</v>
       </c>
       <c r="C71">
-        <v>0.2392192189100521</v>
+        <v>0.2391250069682374</v>
       </c>
       <c r="D71">
-        <v>0.006835283165538408</v>
+        <v>0.004999352600493762</v>
       </c>
       <c r="E71">
-        <v>-0.05572976312099421</v>
+        <v>0.06952959716468864</v>
       </c>
       <c r="F71">
-        <v>0.0004785911836722178</v>
+        <v>-0.01094690986708056</v>
       </c>
       <c r="G71">
-        <v>0.1208903205281627</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.009151952584571145</v>
+      </c>
+      <c r="H71">
+        <v>0.05449615967732793</v>
+      </c>
+      <c r="I71">
+        <v>-0.1553450671182377</v>
+      </c>
+      <c r="J71">
+        <v>-0.01945569630508349</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1059640258335898</v>
+        <v>0.1143322634296913</v>
       </c>
       <c r="C72">
-        <v>0.02806967038601781</v>
+        <v>0.00652467696535924</v>
       </c>
       <c r="D72">
-        <v>-0.04215011288081116</v>
+        <v>-0.06085344088600034</v>
       </c>
       <c r="E72">
-        <v>-0.06955509021892849</v>
+        <v>0.05432019670936705</v>
       </c>
       <c r="F72">
-        <v>0.007277380865060692</v>
+        <v>-0.06928134338885174</v>
       </c>
       <c r="G72">
-        <v>-0.02969527157164671</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02562200515323979</v>
+      </c>
+      <c r="H72">
+        <v>-0.001693894506690773</v>
+      </c>
+      <c r="I72">
+        <v>-0.001161651734019452</v>
+      </c>
+      <c r="J72">
+        <v>-0.08635122200905677</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.265603083084255</v>
+        <v>0.2719479378060472</v>
       </c>
       <c r="C73">
-        <v>0.2234061876379031</v>
+        <v>0.1363636731552329</v>
       </c>
       <c r="D73">
-        <v>0.02313327158881276</v>
+        <v>-0.01682141330556175</v>
       </c>
       <c r="E73">
-        <v>-0.2859110670709172</v>
+        <v>0.2991121090063208</v>
       </c>
       <c r="F73">
-        <v>0.03323045165481713</v>
+        <v>-0.1343948055243484</v>
       </c>
       <c r="G73">
-        <v>0.3936913593925574</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.09533075193400645</v>
+      </c>
+      <c r="H73">
+        <v>0.4258083469128369</v>
+      </c>
+      <c r="I73">
+        <v>0.36306237788823</v>
+      </c>
+      <c r="J73">
+        <v>-0.1653390159256821</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1543443364071483</v>
+        <v>0.1500274447992882</v>
       </c>
       <c r="C74">
-        <v>0.01351503192705177</v>
+        <v>-0.01556071536838672</v>
       </c>
       <c r="D74">
-        <v>-0.05127240292752906</v>
+        <v>-0.04858722549485061</v>
       </c>
       <c r="E74">
-        <v>-0.006509493361037828</v>
+        <v>-0.02040264307653993</v>
       </c>
       <c r="F74">
-        <v>-0.03712923314944557</v>
+        <v>0.02301943841340051</v>
       </c>
       <c r="G74">
-        <v>0.0122175306669247</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.008838842907711164</v>
+      </c>
+      <c r="H74">
+        <v>0.01851681027056045</v>
+      </c>
+      <c r="I74">
+        <v>0.01975956386675671</v>
+      </c>
+      <c r="J74">
+        <v>0.09578865853651804</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2373548904000653</v>
+        <v>0.2426640571277291</v>
       </c>
       <c r="C75">
-        <v>0.01918306303625125</v>
+        <v>-0.02887591617655988</v>
       </c>
       <c r="D75">
-        <v>-0.06227283555740584</v>
+        <v>-0.09954962250852567</v>
       </c>
       <c r="E75">
-        <v>0.109974435112209</v>
+        <v>-0.08727079081410645</v>
       </c>
       <c r="F75">
-        <v>-0.04046887871433449</v>
+        <v>0.09226577678101629</v>
       </c>
       <c r="G75">
-        <v>-0.003140449229575454</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.0140513125688465</v>
+      </c>
+      <c r="H75">
+        <v>0.01388066495108851</v>
+      </c>
+      <c r="I75">
+        <v>-0.02257702348331441</v>
+      </c>
+      <c r="J75">
+        <v>0.155921634561921</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2403698527881156</v>
+        <v>0.2604268353761719</v>
       </c>
       <c r="C76">
-        <v>0.01920730503861105</v>
+        <v>-0.01929715320564995</v>
       </c>
       <c r="D76">
-        <v>-0.1024247835523415</v>
+        <v>-0.1286547420049013</v>
       </c>
       <c r="E76">
-        <v>0.08473679175171753</v>
+        <v>-0.1181179473033265</v>
       </c>
       <c r="F76">
-        <v>-0.04533615154824431</v>
+        <v>0.08800647742243355</v>
       </c>
       <c r="G76">
-        <v>0.01036873171249999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.02659484596787902</v>
+      </c>
+      <c r="H76">
+        <v>0.01380546789940642</v>
+      </c>
+      <c r="I76">
+        <v>0.05107308430045908</v>
+      </c>
+      <c r="J76">
+        <v>0.1774134380820746</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1252491360138407</v>
+        <v>0.1302011840572342</v>
       </c>
       <c r="C77">
-        <v>-0.01121743802968869</v>
+        <v>-0.04455187153674685</v>
       </c>
       <c r="D77">
-        <v>0.07107513709859666</v>
+        <v>0.0543851621298389</v>
       </c>
       <c r="E77">
-        <v>-0.1664427401644007</v>
+        <v>0.1138444856542492</v>
       </c>
       <c r="F77">
-        <v>-0.003247331936045296</v>
+        <v>-0.1313121259948012</v>
       </c>
       <c r="G77">
-        <v>-0.1316631382346597</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.03550708065572387</v>
+      </c>
+      <c r="H77">
+        <v>-0.1550231126890682</v>
+      </c>
+      <c r="I77">
+        <v>-0.1702940803687486</v>
+      </c>
+      <c r="J77">
+        <v>0.08339086101276423</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.09451787505585543</v>
+        <v>0.08912927545522355</v>
       </c>
       <c r="C78">
-        <v>-0.02438070244301664</v>
+        <v>-0.0517642142756858</v>
       </c>
       <c r="D78">
-        <v>0.0216662177674936</v>
+        <v>0.00251568237386371</v>
       </c>
       <c r="E78">
-        <v>-0.07474721821301078</v>
+        <v>0.05065250310169729</v>
       </c>
       <c r="F78">
-        <v>0.008750448878081706</v>
+        <v>-0.0789340915876042</v>
       </c>
       <c r="G78">
-        <v>0.02641885744356485</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.003051231098765353</v>
+      </c>
+      <c r="H78">
+        <v>-0.01262993443116991</v>
+      </c>
+      <c r="I78">
+        <v>-0.03576994625806973</v>
+      </c>
+      <c r="J78">
+        <v>0.01349493527841989</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.07080441330710015</v>
+        <v>0.1221009344163363</v>
       </c>
       <c r="C80">
-        <v>0.01127079211981234</v>
+        <v>0.1298087448954849</v>
       </c>
       <c r="D80">
-        <v>0.01162925455057113</v>
+        <v>0.2145394912106816</v>
       </c>
       <c r="E80">
-        <v>0.009010084756280274</v>
+        <v>-0.6848664366699003</v>
       </c>
       <c r="F80">
-        <v>-0.04415577885787952</v>
+        <v>-0.6437316281747806</v>
       </c>
       <c r="G80">
-        <v>-0.2987053125719529</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.03166972999343128</v>
+      </c>
+      <c r="H80">
+        <v>0.1007964916585093</v>
+      </c>
+      <c r="I80">
+        <v>0.06644147391451577</v>
+      </c>
+      <c r="J80">
+        <v>-0.09465613058034314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1646148228476937</v>
+        <v>0.173428330071317</v>
       </c>
       <c r="C81">
-        <v>0.01085825870341192</v>
+        <v>-0.01350582865640478</v>
       </c>
       <c r="D81">
-        <v>-0.05563609547746483</v>
+        <v>-0.08506083823812619</v>
       </c>
       <c r="E81">
-        <v>0.117338889948075</v>
+        <v>-0.1019209398467385</v>
       </c>
       <c r="F81">
-        <v>-0.07043877564666476</v>
+        <v>0.103809112297586</v>
       </c>
       <c r="G81">
-        <v>0.003181876114069059</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.0187097341035122</v>
+      </c>
+      <c r="H81">
+        <v>0.01052179681638587</v>
+      </c>
+      <c r="I81">
+        <v>-0.001152560521486187</v>
+      </c>
+      <c r="J81">
+        <v>0.09725826939256899</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.08188151360737361</v>
+        <v>0.06483270053104163</v>
       </c>
       <c r="C83">
-        <v>-0.0252442116254473</v>
+        <v>-0.03538489375867739</v>
       </c>
       <c r="D83">
-        <v>0.09628098733783445</v>
+        <v>0.04261796053145257</v>
       </c>
       <c r="E83">
-        <v>-0.04263769863526646</v>
+        <v>0.05937934599947572</v>
       </c>
       <c r="F83">
-        <v>0.06843329489468514</v>
+        <v>-0.02740821489585992</v>
       </c>
       <c r="G83">
-        <v>-0.03144170067606353</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04525500713740879</v>
+      </c>
+      <c r="H83">
+        <v>-0.04045026040993747</v>
+      </c>
+      <c r="I83">
+        <v>-0.0166722388957965</v>
+      </c>
+      <c r="J83">
+        <v>0.08743026888649562</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2457038069794122</v>
+        <v>0.2543058918702766</v>
       </c>
       <c r="C85">
-        <v>-0.03880777782178554</v>
+        <v>-0.05989956206746416</v>
       </c>
       <c r="D85">
-        <v>-0.05234132806854651</v>
+        <v>-0.08366860451406419</v>
       </c>
       <c r="E85">
-        <v>0.1167175838411309</v>
+        <v>-0.1148949637825444</v>
       </c>
       <c r="F85">
-        <v>-0.02766409974167188</v>
+        <v>0.08508691606179283</v>
       </c>
       <c r="G85">
-        <v>-0.04049405144587025</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.01435385321120567</v>
+      </c>
+      <c r="H85">
+        <v>-0.02820111407041457</v>
+      </c>
+      <c r="I85">
+        <v>-0.007887541218241584</v>
+      </c>
+      <c r="J85">
+        <v>0.1782272659108087</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04766412818647216</v>
+        <v>0.03103707406395242</v>
       </c>
       <c r="C86">
-        <v>-0.0273972161627685</v>
+        <v>-0.04087130729762387</v>
       </c>
       <c r="D86">
-        <v>-0.004202069472594996</v>
+        <v>-0.004347645547572119</v>
       </c>
       <c r="E86">
-        <v>-0.05187502439510861</v>
+        <v>0.0297698723375178</v>
       </c>
       <c r="F86">
-        <v>-0.009301807048853666</v>
+        <v>-0.06106827457650174</v>
       </c>
       <c r="G86">
-        <v>-0.0223312465086664</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.009329571759498804</v>
+      </c>
+      <c r="H86">
+        <v>-0.03705479575658596</v>
+      </c>
+      <c r="I86">
+        <v>-0.06418194011118884</v>
+      </c>
+      <c r="J86">
+        <v>-0.02491101928065254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02898924724290967</v>
+        <v>0.03827155449245021</v>
       </c>
       <c r="C87">
-        <v>0.05146419055294118</v>
+        <v>0.02432118881708775</v>
       </c>
       <c r="D87">
-        <v>-0.01233596352509935</v>
+        <v>-0.004480236208601893</v>
       </c>
       <c r="E87">
-        <v>-0.05942978750798562</v>
+        <v>0.0652971738988926</v>
       </c>
       <c r="F87">
-        <v>0.04322872790134241</v>
+        <v>-0.06783189588530927</v>
       </c>
       <c r="G87">
-        <v>0.1294689521401564</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02737858301007129</v>
+      </c>
+      <c r="H87">
+        <v>0.007970981382910343</v>
+      </c>
+      <c r="I87">
+        <v>-0.001282154077239463</v>
+      </c>
+      <c r="J87">
+        <v>-0.0965090836817543</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.04032752212117393</v>
+        <v>0.02492720461288366</v>
       </c>
       <c r="C88">
-        <v>-0.01982798588300624</v>
+        <v>-0.0171014236733872</v>
       </c>
       <c r="D88">
-        <v>-0.004284587709957609</v>
+        <v>-0.00676369018556994</v>
       </c>
       <c r="E88">
-        <v>-0.001738012866183938</v>
+        <v>-0.01821941007663938</v>
       </c>
       <c r="F88">
-        <v>-0.007447813601089498</v>
+        <v>-0.02209931649685526</v>
       </c>
       <c r="G88">
-        <v>-0.06158342499524593</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02572556971994308</v>
+      </c>
+      <c r="H88">
+        <v>-0.04755919119941464</v>
+      </c>
+      <c r="I88">
+        <v>0.01206562246965169</v>
+      </c>
+      <c r="J88">
+        <v>-0.02796495443518071</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.02768404480316195</v>
+        <v>0.0493474663841985</v>
       </c>
       <c r="C89">
-        <v>0.4308967665386214</v>
+        <v>0.3989542231855924</v>
       </c>
       <c r="D89">
-        <v>0.09883537521882989</v>
+        <v>0.02712436487321115</v>
       </c>
       <c r="E89">
-        <v>0.03878439677220709</v>
+        <v>0.06220035505467075</v>
       </c>
       <c r="F89">
-        <v>0.01718741934279931</v>
+        <v>0.02387361719276429</v>
       </c>
       <c r="G89">
-        <v>-0.02341068923153598</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.06414771741163831</v>
+      </c>
+      <c r="H89">
+        <v>-0.001467935906249762</v>
+      </c>
+      <c r="I89">
+        <v>-0.28758294176745</v>
+      </c>
+      <c r="J89">
+        <v>0.06822449354530138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.0284361075492562</v>
+        <v>0.02916270929086441</v>
       </c>
       <c r="C90">
-        <v>0.3090241006316304</v>
+        <v>0.3313071178377412</v>
       </c>
       <c r="D90">
-        <v>0.02216480107577742</v>
+        <v>0.009405609516319576</v>
       </c>
       <c r="E90">
-        <v>-0.02449810783946499</v>
+        <v>0.03175584608888645</v>
       </c>
       <c r="F90">
-        <v>0.003200237799381003</v>
+        <v>-0.006543605756463531</v>
       </c>
       <c r="G90">
-        <v>0.07510381586935434</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01543822381911047</v>
+      </c>
+      <c r="H90">
+        <v>0.04671300915341393</v>
+      </c>
+      <c r="I90">
+        <v>-0.1994666565224376</v>
+      </c>
+      <c r="J90">
+        <v>0.03260879707749319</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.3124263521544074</v>
+        <v>0.316771391201561</v>
       </c>
       <c r="C91">
-        <v>-0.01014257065364369</v>
+        <v>-0.04761529872422163</v>
       </c>
       <c r="D91">
-        <v>-0.06886998914384142</v>
+        <v>-0.1014169277973962</v>
       </c>
       <c r="E91">
-        <v>0.2548469543100735</v>
+        <v>-0.1977147159696481</v>
       </c>
       <c r="F91">
-        <v>-0.1172041620759542</v>
+        <v>0.1965980158700059</v>
       </c>
       <c r="G91">
-        <v>-0.1204040445615702</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02598961343533205</v>
+      </c>
+      <c r="H91">
+        <v>0.008977447629836252</v>
+      </c>
+      <c r="I91">
+        <v>-0.01016723256038759</v>
+      </c>
+      <c r="J91">
+        <v>0.3397834223206255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.0441509725928878</v>
+        <v>0.06870564862815944</v>
       </c>
       <c r="C92">
-        <v>0.4492579392360536</v>
+        <v>0.4700444206397898</v>
       </c>
       <c r="D92">
-        <v>0.2039491415281212</v>
+        <v>0.04931816917359533</v>
       </c>
       <c r="E92">
-        <v>0.1116014108092757</v>
+        <v>-0.05243736993400886</v>
       </c>
       <c r="F92">
-        <v>-0.09330756386476942</v>
+        <v>0.1464566445862043</v>
       </c>
       <c r="G92">
-        <v>-0.5282098606784987</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02202672228634717</v>
+      </c>
+      <c r="H92">
+        <v>-0.5868497175252747</v>
+      </c>
+      <c r="I92">
+        <v>0.6038724821088116</v>
+      </c>
+      <c r="J92">
+        <v>0.004661049703648015</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.0418597092327588</v>
+        <v>0.02813125134785185</v>
       </c>
       <c r="C93">
-        <v>0.3619906588651886</v>
+        <v>0.4020897617494258</v>
       </c>
       <c r="D93">
-        <v>0.0707231868508502</v>
+        <v>0.0324280074903187</v>
       </c>
       <c r="E93">
-        <v>0.05644995369658108</v>
+        <v>0.01927972078220525</v>
       </c>
       <c r="F93">
-        <v>-0.01903598438993886</v>
+        <v>0.05857851019078414</v>
       </c>
       <c r="G93">
-        <v>-0.00757996281888273</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03852185027043913</v>
+      </c>
+      <c r="H93">
+        <v>0.05529316681215508</v>
+      </c>
+      <c r="I93">
+        <v>-0.2120028112395247</v>
+      </c>
+      <c r="J93">
+        <v>0.05292052275729777</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.3057705863860127</v>
+        <v>0.3239567752053877</v>
       </c>
       <c r="C94">
-        <v>0.02580373706895273</v>
+        <v>-0.01818947048843963</v>
       </c>
       <c r="D94">
-        <v>-0.07002761210076756</v>
+        <v>-0.1650774521936784</v>
       </c>
       <c r="E94">
-        <v>0.4383042043032505</v>
+        <v>-0.2473439262603097</v>
       </c>
       <c r="F94">
-        <v>-0.4494057264368495</v>
+        <v>0.3151897804408259</v>
       </c>
       <c r="G94">
-        <v>0.1279046900519395</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2233748716051319</v>
+      </c>
+      <c r="H94">
+        <v>-0.0294921649159036</v>
+      </c>
+      <c r="I94">
+        <v>-0.2366806908449323</v>
+      </c>
+      <c r="J94">
+        <v>-0.5382475873146236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1959506725256831</v>
+        <v>0.1452815743855664</v>
       </c>
       <c r="C95">
-        <v>0.04527300835162688</v>
+        <v>-0.05870205126425073</v>
       </c>
       <c r="D95">
-        <v>-0.009585290905661922</v>
+        <v>-0.03851092048739481</v>
       </c>
       <c r="E95">
-        <v>0.3948822798225631</v>
+        <v>0.01422889551012089</v>
       </c>
       <c r="F95">
-        <v>0.8356842846109456</v>
+        <v>0.07560248837732185</v>
       </c>
       <c r="G95">
-        <v>-0.05537765616333667</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9224392261402855</v>
+      </c>
+      <c r="H95">
+        <v>0.01590568284327429</v>
+      </c>
+      <c r="I95">
+        <v>-0.001360329152681698</v>
+      </c>
+      <c r="J95">
+        <v>-0.2572234519610043</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2068355486660447</v>
+        <v>0.2058424859257919</v>
       </c>
       <c r="C98">
-        <v>0.1453069162669612</v>
+        <v>0.08482518574840864</v>
       </c>
       <c r="D98">
-        <v>0.0230931992050239</v>
+        <v>-0.002581971525517326</v>
       </c>
       <c r="E98">
-        <v>-0.09539177587677471</v>
+        <v>0.1743518496716128</v>
       </c>
       <c r="F98">
-        <v>0.02831351090797554</v>
+        <v>-0.03620872858003898</v>
       </c>
       <c r="G98">
-        <v>0.2599730244035526</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.04082118758682673</v>
+      </c>
+      <c r="H98">
+        <v>0.295426429198248</v>
+      </c>
+      <c r="I98">
+        <v>0.2258293323092363</v>
+      </c>
+      <c r="J98">
+        <v>-0.03388613995958649</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02143362616838277</v>
+        <v>0.01282580431701119</v>
       </c>
       <c r="C101">
-        <v>-0.01508150183010109</v>
+        <v>-0.02760521178863816</v>
       </c>
       <c r="D101">
-        <v>-0.01812116138903491</v>
+        <v>-0.02284955902054899</v>
       </c>
       <c r="E101">
-        <v>-0.04088597386161832</v>
+        <v>0.03313261091552236</v>
       </c>
       <c r="F101">
-        <v>0.01275246902883621</v>
+        <v>-0.06409648681599799</v>
       </c>
       <c r="G101">
-        <v>-0.04596267550572708</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.01242375488284782</v>
+      </c>
+      <c r="H101">
+        <v>-0.117794233663289</v>
+      </c>
+      <c r="I101">
+        <v>-0.01309397143964174</v>
+      </c>
+      <c r="J101">
+        <v>-0.09769911799565041</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1204566553072096</v>
+        <v>0.1208426842872529</v>
       </c>
       <c r="C102">
-        <v>0.00231372749441414</v>
+        <v>-0.02820043957018946</v>
       </c>
       <c r="D102">
-        <v>-0.04691578060104838</v>
+        <v>-0.05132044479785997</v>
       </c>
       <c r="E102">
-        <v>0.07416755292306079</v>
+        <v>-0.07465678591500662</v>
       </c>
       <c r="F102">
-        <v>0.01241348624985052</v>
+        <v>0.04735958205328896</v>
       </c>
       <c r="G102">
-        <v>-0.01232265864377244</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.03338408795203261</v>
+      </c>
+      <c r="H102">
+        <v>0.002875173740620227</v>
+      </c>
+      <c r="I102">
+        <v>-0.02636496239433354</v>
+      </c>
+      <c r="J102">
+        <v>0.06837205503148908</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01614935659650277</v>
+        <v>0.02509495778937123</v>
       </c>
       <c r="C103">
-        <v>0.0005248425601106785</v>
+        <v>-0.003950381415831293</v>
       </c>
       <c r="D103">
-        <v>-0.0162194548892971</v>
+        <v>-0.01490954471525651</v>
       </c>
       <c r="E103">
-        <v>0.02816142901762808</v>
+        <v>-0.02502989358557339</v>
       </c>
       <c r="F103">
-        <v>-0.0140055717124434</v>
+        <v>0.001016733713068941</v>
       </c>
       <c r="G103">
-        <v>0.01108642411154586</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01294110508827043</v>
+      </c>
+      <c r="H103">
+        <v>-2.56973584352421e-05</v>
+      </c>
+      <c r="I103">
+        <v>-0.02299293878945345</v>
+      </c>
+      <c r="J103">
+        <v>0.004618337453330592</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
